--- a/EmployeesFSE.xlsx
+++ b/EmployeesFSE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="681">
   <si>
     <t>Display name</t>
   </si>
@@ -2013,6 +2013,60 @@
   </si>
   <si>
     <t>Warehouseman</t>
+  </si>
+  <si>
+    <t>Hudson 360 W31st Office</t>
+  </si>
+  <si>
+    <t>Project Management</t>
+  </si>
+  <si>
+    <t>Intern</t>
+  </si>
+  <si>
+    <t>ESA Queens Office</t>
+  </si>
+  <si>
+    <t>ESA 415 Madison Ave.</t>
+  </si>
+  <si>
+    <t>Exec Assistant</t>
+  </si>
+  <si>
+    <t>admin/ accounting dept?</t>
+  </si>
+  <si>
+    <t>Document Coordinator</t>
+  </si>
+  <si>
+    <t>Project Accountant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jon Siegel </t>
+  </si>
+  <si>
+    <t>Ozone?</t>
+  </si>
+  <si>
+    <t>Office Manager</t>
+  </si>
+  <si>
+    <t>Matthew Therien ?</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew Therien  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ozone </t>
+  </si>
+  <si>
+    <t>Minority Good Faith Effort Consultant</t>
+  </si>
+  <si>
+    <t>CAD Operator</t>
   </si>
 </sst>
 </file>
@@ -2036,12 +2090,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2056,9 +2122,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2341,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,8 +2418,8 @@
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2396,23 +2464,23 @@
         <v>654</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -2433,20 +2501,20 @@
         <v>653</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>657</v>
       </c>
     </row>
@@ -2470,23 +2538,23 @@
         <v>654</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>646</v>
       </c>
     </row>
@@ -2506,24 +2574,27 @@
       <c r="E9" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F9" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>428</v>
       </c>
     </row>
@@ -2547,20 +2618,20 @@
         <v>394</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>653</v>
       </c>
     </row>
@@ -2581,21 +2652,24 @@
         <v>653</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>653</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2612,20 +2686,20 @@
         <v>653</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>653</v>
       </c>
     </row>
@@ -2649,28 +2723,28 @@
         <v>349</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B19" t="s">
@@ -2679,15 +2753,27 @@
       <c r="C19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D19" t="s">
+        <v>663</v>
+      </c>
+      <c r="E19" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2701,16 +2787,34 @@
       <c r="C21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D21" t="s">
+        <v>652</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2723,16 +2827,25 @@
       <c r="C23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="E23" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2745,16 +2858,28 @@
       <c r="C25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D25" t="s">
+        <v>667</v>
+      </c>
+      <c r="E25" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2767,38 +2892,65 @@
       <c r="C27" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D27" t="s">
+        <v>656</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="E28" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="D29" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2811,63 +2963,108 @@
       <c r="C31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="D31" t="s">
+        <v>663</v>
+      </c>
+      <c r="E31" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D32" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="D33" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="D34" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="D35" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -2877,19 +3074,34 @@
       <c r="C37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="D37" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -2899,19 +3111,31 @@
       <c r="C39" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="D39" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E39" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -2921,19 +3145,34 @@
       <c r="C41" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="D41" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="E41" t="s">
+        <v>653</v>
+      </c>
+      <c r="F41" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -2943,19 +3182,37 @@
       <c r="C43" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="D43" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E43" t="s">
+        <v>653</v>
+      </c>
+      <c r="F43" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -2965,19 +3222,37 @@
       <c r="C45" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="D45" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="E45" t="s">
+        <v>653</v>
+      </c>
+      <c r="F45" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -2987,8 +3262,14 @@
       <c r="C47" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>680</v>
+      </c>
+      <c r="F47" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>98</v>
       </c>
@@ -5971,5 +6252,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/EmployeesFSE.xlsx
+++ b/EmployeesFSE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="691">
   <si>
     <t>Display name</t>
   </si>
@@ -2067,6 +2067,36 @@
   </si>
   <si>
     <t>CAD Operator</t>
+  </si>
+  <si>
+    <t>BIM Engineer</t>
+  </si>
+  <si>
+    <t>Ozone ?</t>
+  </si>
+  <si>
+    <t>350 W31st ST ?</t>
+  </si>
+  <si>
+    <t>legal council review</t>
+  </si>
+  <si>
+    <t>Lead Engineer</t>
+  </si>
+  <si>
+    <t>350 W31st St ?</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Dennis Prevette</t>
+  </si>
+  <si>
+    <t>Joseph Penna</t>
+  </si>
+  <si>
+    <t>Field Engineer</t>
   </si>
 </sst>
 </file>
@@ -2409,8 +2439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3243,7 +3273,7 @@
         <v>95</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>656</v>
+        <v>682</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>679</v>
@@ -3262,6 +3292,9 @@
       <c r="C47" t="s">
         <v>95</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>683</v>
+      </c>
       <c r="E47" t="s">
         <v>680</v>
       </c>
@@ -3269,18 +3302,27 @@
         <v>475</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>100</v>
       </c>
@@ -3290,19 +3332,37 @@
       <c r="C49" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="D49" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="E49" t="s">
+        <v>684</v>
+      </c>
+      <c r="F49" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>104</v>
       </c>
@@ -3312,19 +3372,34 @@
       <c r="C51" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="D51" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="E51" t="s">
+        <v>685</v>
+      </c>
+      <c r="F51" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -3334,19 +3409,37 @@
       <c r="C53" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="D53" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E53" t="s">
+        <v>665</v>
+      </c>
+      <c r="F53" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C54" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>113</v>
       </c>
@@ -3356,19 +3449,37 @@
       <c r="C55" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="D55" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E55" t="s">
+        <v>687</v>
+      </c>
+      <c r="F55" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>117</v>
       </c>
@@ -3378,19 +3489,37 @@
       <c r="C57" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="D57" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E57" t="s">
+        <v>680</v>
+      </c>
+      <c r="F57" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C58" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>121</v>
       </c>
@@ -3400,19 +3529,37 @@
       <c r="C59" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="D59" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E59" t="s">
+        <v>687</v>
+      </c>
+      <c r="F59" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C60" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -3422,19 +3569,37 @@
       <c r="C61" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="D61" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E61" t="s">
+        <v>687</v>
+      </c>
+      <c r="F61" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C62" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>129</v>
       </c>
@@ -3444,16 +3609,25 @@
       <c r="C63" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="D63" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="E63" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C64" t="s">
-        <v>108</v>
+      <c r="C64" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">

--- a/EmployeesFSE.xlsx
+++ b/EmployeesFSE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8895" windowHeight="12510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="776">
   <si>
     <t>Display name</t>
   </si>
@@ -2097,6 +2097,261 @@
   </si>
   <si>
     <t>Field Engineer</t>
+  </si>
+  <si>
+    <t>Engineering Manager</t>
+  </si>
+  <si>
+    <t>Senior Engineer</t>
+  </si>
+  <si>
+    <t>CAD Engineer 1</t>
+  </si>
+  <si>
+    <t>Electrician Journeyman Grade 7</t>
+  </si>
+  <si>
+    <t>Senior CAD Engineer</t>
+  </si>
+  <si>
+    <t>CAD Engineer II</t>
+  </si>
+  <si>
+    <t>Engineer II</t>
+  </si>
+  <si>
+    <t>Engineer III</t>
+  </si>
+  <si>
+    <t>Office  Enginner</t>
+  </si>
+  <si>
+    <t>Director of engineering</t>
+  </si>
+  <si>
+    <t>Engineer I</t>
+  </si>
+  <si>
+    <t>Jon Siegel</t>
+  </si>
+  <si>
+    <t>360 W31st ST</t>
+  </si>
+  <si>
+    <t>Project Engineer</t>
+  </si>
+  <si>
+    <t>Project Manager I</t>
+  </si>
+  <si>
+    <t>ESA LIC (Office)</t>
+  </si>
+  <si>
+    <t>Ed Yates</t>
+  </si>
+  <si>
+    <t>CAD Engineer I</t>
+  </si>
+  <si>
+    <t>CAD Manager</t>
+  </si>
+  <si>
+    <t>CAD Engineer</t>
+  </si>
+  <si>
+    <t>Office Engineer</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Project Manager II</t>
+  </si>
+  <si>
+    <t>Assistant Project Engineer</t>
+  </si>
+  <si>
+    <t>CAD Assistant</t>
+  </si>
+  <si>
+    <t>Asst Project Manager</t>
+  </si>
+  <si>
+    <t>Senior Estimator</t>
+  </si>
+  <si>
+    <t>Estimator</t>
+  </si>
+  <si>
+    <t>Electrical Estimator</t>
+  </si>
+  <si>
+    <t>Estimator I</t>
+  </si>
+  <si>
+    <t>Estimating Manager</t>
+  </si>
+  <si>
+    <t>Estimating Coordinator</t>
+  </si>
+  <si>
+    <t>360 W31st St.</t>
+  </si>
+  <si>
+    <t>Vice President</t>
+  </si>
+  <si>
+    <t>VP &amp; CFO</t>
+  </si>
+  <si>
+    <t>Ronald Marano</t>
+  </si>
+  <si>
+    <t>350 W31st St</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>Division Manager</t>
+  </si>
+  <si>
+    <t>AP/AR Manager</t>
+  </si>
+  <si>
+    <t>Accountant II</t>
+  </si>
+  <si>
+    <t>VP Finance &amp; Control</t>
+  </si>
+  <si>
+    <t>Manager of Accounting</t>
+  </si>
+  <si>
+    <t>Cost Control Manager</t>
+  </si>
+  <si>
+    <t>Senior Accountant</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>IT Lead</t>
+  </si>
+  <si>
+    <t>Director of Safety</t>
+  </si>
+  <si>
+    <t>Legal Administrator</t>
+  </si>
+  <si>
+    <t>Warehouse Assistant</t>
+  </si>
+  <si>
+    <t>warehouse</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>Buyer/Expeditor</t>
+  </si>
+  <si>
+    <t>Project Executive</t>
+  </si>
+  <si>
+    <t>350 W31st St.</t>
+  </si>
+  <si>
+    <t>425 Park Ave</t>
+  </si>
+  <si>
+    <t>ESA 415 Madison Ave</t>
+  </si>
+  <si>
+    <t>Archer Ave</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>ESA LIC (trailer)</t>
+  </si>
+  <si>
+    <t>ESA LIC (office)</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>425 park ave.</t>
+  </si>
+  <si>
+    <t>Cost Engineer</t>
+  </si>
+  <si>
+    <t>Senior Scheduler</t>
+  </si>
+  <si>
+    <t>Steven Smith</t>
+  </si>
+  <si>
+    <t>Hudson 360 W31st St</t>
+  </si>
+  <si>
+    <t>Warehouse Manager</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>Assistant Project Manager</t>
+  </si>
+  <si>
+    <t>Junior Project Manager</t>
+  </si>
+  <si>
+    <t>Safety Engineer I</t>
+  </si>
+  <si>
+    <t>Quality Control Engineer</t>
+  </si>
+  <si>
+    <t>Sr. Project Manager</t>
+  </si>
+  <si>
+    <t>ESA 425 Park</t>
+  </si>
+  <si>
+    <t>Purchasing Manager</t>
+  </si>
+  <si>
+    <t>Business Solutions Manager</t>
+  </si>
+  <si>
+    <t>Purchasing Agent</t>
+  </si>
+  <si>
+    <t>Signalman</t>
+  </si>
+  <si>
+    <t>ESA</t>
+  </si>
+  <si>
+    <t>Assistant Signalman</t>
+  </si>
+  <si>
+    <t>Newark/350</t>
+  </si>
+  <si>
+    <t>Ozone/Newaek</t>
+  </si>
+  <si>
+    <t>Superintendent</t>
+  </si>
+  <si>
+    <t>Superintendent I</t>
   </si>
 </sst>
 </file>
@@ -2120,7 +2375,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2139,6 +2394,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2152,11 +2419,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2437,10 +2706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F318"/>
+  <dimension ref="A1:F328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
+      <selection activeCell="E249" sqref="E249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3262,189 +3531,155 @@
         <v>349</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>97</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>680</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F48" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>101</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>684</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F50" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>105</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>685</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F52" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>687</v>
-      </c>
-    </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>109</v>
-      </c>
-      <c r="B53" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="E53" t="s">
-        <v>665</v>
-      </c>
-      <c r="F53" t="s">
-        <v>672</v>
-      </c>
+      <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>243</v>
-      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
         <v>108</v>
@@ -3453,7 +3688,7 @@
         <v>655</v>
       </c>
       <c r="E55" t="s">
-        <v>687</v>
+        <v>665</v>
       </c>
       <c r="F55" t="s">
         <v>672</v>
@@ -3461,99 +3696,99 @@
     </row>
     <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>687</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>688</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C57" t="s">
         <v>108</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E57" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="F57" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
         <v>108</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="E59" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="F59" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>672</v>
@@ -3561,10 +3796,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s">
         <v>108</v>
@@ -3581,10 +3816,10 @@
     </row>
     <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>108</v>
@@ -3601,2827 +3836,4811 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C63" t="s">
         <v>108</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="E63" t="s">
         <v>687</v>
       </c>
+      <c r="F63" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="E65" t="s">
+        <v>687</v>
+      </c>
+      <c r="F65" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="C66" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>133</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
         <v>134</v>
       </c>
-      <c r="C65" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="C67" t="s">
+        <v>108</v>
+      </c>
+      <c r="E67" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B68" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C66" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="C68" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>137</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B69" t="s">
         <v>138</v>
       </c>
-      <c r="C67" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="C69" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E69" t="s">
+        <v>680</v>
+      </c>
+      <c r="F69" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B70" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C68" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="C70" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>141</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B71" t="s">
         <v>142</v>
       </c>
-      <c r="C69" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="C71" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E71" t="s">
+        <v>653</v>
+      </c>
+      <c r="F71" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C70" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="C72" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>145</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B73" t="s">
         <v>146</v>
       </c>
-      <c r="C71" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="C73" t="s">
+        <v>108</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B74" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C72" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="C74" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>149</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B75" t="s">
         <v>150</v>
       </c>
-      <c r="C73" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="C75" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E75" t="s">
+        <v>680</v>
+      </c>
+      <c r="F75" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B76" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C74" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="C76" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>153</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B77" t="s">
         <v>154</v>
       </c>
-      <c r="C75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="C77" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E77" t="s">
+        <v>694</v>
+      </c>
+      <c r="F77" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B78" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C76" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="C78" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>157</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B79" t="s">
         <v>158</v>
       </c>
-      <c r="C77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="C79" t="s">
+        <v>108</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E79" t="s">
+        <v>695</v>
+      </c>
+      <c r="F79" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="C80" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>161</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B81" t="s">
         <v>162</v>
       </c>
-      <c r="C79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="C81" t="s">
+        <v>108</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="E81" t="s">
+        <v>680</v>
+      </c>
+      <c r="F81" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B82" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="C82" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>165</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B83" t="s">
         <v>166</v>
       </c>
-      <c r="C81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="C83" t="s">
+        <v>108</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="E83" t="s">
+        <v>696</v>
+      </c>
+      <c r="F83" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B84" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C82" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="C84" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>169</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B85" t="s">
         <v>170</v>
       </c>
-      <c r="C83" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="C85" t="s">
+        <v>108</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E85" t="s">
+        <v>698</v>
+      </c>
+      <c r="F85" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B86" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="C86" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>173</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B87" t="s">
         <v>174</v>
       </c>
-      <c r="C85" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="C87" t="s">
+        <v>108</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E87" t="s">
+        <v>680</v>
+      </c>
+      <c r="F87" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B88" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C86" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="C88" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>177</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B89" t="s">
         <v>178</v>
       </c>
-      <c r="C87" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="C89" t="s">
+        <v>108</v>
+      </c>
+      <c r="D89" t="s">
+        <v>655</v>
+      </c>
+      <c r="E89" t="s">
+        <v>697</v>
+      </c>
+      <c r="F89" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B90" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C88" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="C90" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>181</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B91" t="s">
         <v>182</v>
       </c>
-      <c r="C89" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="C91" t="s">
+        <v>108</v>
+      </c>
+      <c r="E91" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B92" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C90" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="C92" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>185</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B93" t="s">
         <v>186</v>
       </c>
-      <c r="C91" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="C93" t="s">
+        <v>108</v>
+      </c>
+      <c r="D93" t="s">
+        <v>655</v>
+      </c>
+      <c r="E93" t="s">
+        <v>701</v>
+      </c>
+      <c r="F93" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B94" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="C94" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>189</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B95" t="s">
         <v>190</v>
       </c>
-      <c r="C93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="C95" t="s">
+        <v>108</v>
+      </c>
+      <c r="D95" t="s">
+        <v>667</v>
+      </c>
+      <c r="E95" t="s">
+        <v>680</v>
+      </c>
+      <c r="F95" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B96" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="C96" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>193</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B97" t="s">
         <v>194</v>
       </c>
-      <c r="C95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="C97" t="s">
+        <v>108</v>
+      </c>
+      <c r="D97" t="s">
+        <v>656</v>
+      </c>
+      <c r="E97" t="s">
+        <v>701</v>
+      </c>
+      <c r="F97" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B98" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="C98" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>197</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B99" t="s">
         <v>198</v>
       </c>
-      <c r="C97" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="C99" t="s">
+        <v>108</v>
+      </c>
+      <c r="D99" t="s">
+        <v>655</v>
+      </c>
+      <c r="E99" t="s">
+        <v>680</v>
+      </c>
+      <c r="F99" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B100" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C98" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="C100" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>201</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B101" t="s">
         <v>202</v>
       </c>
-      <c r="C99" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="C101" t="s">
+        <v>108</v>
+      </c>
+      <c r="D101" t="s">
+        <v>765</v>
+      </c>
+      <c r="E101" t="s">
+        <v>701</v>
+      </c>
+      <c r="F101" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B102" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C100" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="C102" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>205</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B103" t="s">
         <v>206</v>
       </c>
-      <c r="C101" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="C103" t="s">
+        <v>108</v>
+      </c>
+      <c r="D103" t="s">
+        <v>667</v>
+      </c>
+      <c r="F103" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B104" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C102" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="C104" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>209</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B105" t="s">
         <v>210</v>
       </c>
-      <c r="C103" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="C105" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105" t="s">
+        <v>652</v>
+      </c>
+      <c r="E105" t="s">
+        <v>701</v>
+      </c>
+      <c r="F105" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B106" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C104" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="C106" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>213</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B107" t="s">
         <v>214</v>
       </c>
-      <c r="C105" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="C107" t="s">
+        <v>108</v>
+      </c>
+      <c r="D107" t="s">
+        <v>667</v>
+      </c>
+      <c r="E107" t="s">
+        <v>704</v>
+      </c>
+      <c r="F107" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B108" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C106" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="C108" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>217</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B109" t="s">
         <v>218</v>
       </c>
-      <c r="C107" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="C109" t="s">
+        <v>108</v>
+      </c>
+      <c r="D109" t="s">
+        <v>652</v>
+      </c>
+      <c r="E109" t="s">
+        <v>701</v>
+      </c>
+      <c r="F109" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B110" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C108" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="C110" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>221</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B111" t="s">
         <v>222</v>
       </c>
-      <c r="C109" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="C111" t="s">
+        <v>108</v>
+      </c>
+      <c r="D111" t="s">
+        <v>667</v>
+      </c>
+      <c r="E111" t="s">
+        <v>680</v>
+      </c>
+      <c r="F111" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B112" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C110" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="C112" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>225</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B113" t="s">
         <v>226</v>
       </c>
-      <c r="C111" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="C113" t="s">
+        <v>108</v>
+      </c>
+      <c r="D113" t="s">
+        <v>652</v>
+      </c>
+      <c r="E113" t="s">
+        <v>690</v>
+      </c>
+      <c r="F113" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B114" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C112" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="C114" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>229</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B115" t="s">
         <v>230</v>
       </c>
-      <c r="C113" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="C115" t="s">
+        <v>108</v>
+      </c>
+      <c r="E115" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B116" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C114" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="C116" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>233</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B117" t="s">
         <v>234</v>
       </c>
-      <c r="C115" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="C117" t="s">
+        <v>108</v>
+      </c>
+      <c r="D117" t="s">
+        <v>655</v>
+      </c>
+      <c r="E117" t="s">
+        <v>694</v>
+      </c>
+      <c r="F117" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B118" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C116" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="C118" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>237</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B119" t="s">
         <v>238</v>
       </c>
-      <c r="C117" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="C119" t="s">
+        <v>108</v>
+      </c>
+      <c r="D119" t="s">
+        <v>655</v>
+      </c>
+      <c r="E119" t="s">
+        <v>680</v>
+      </c>
+      <c r="F119" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B120" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C118" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="C120" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>241</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B121" t="s">
         <v>242</v>
       </c>
-      <c r="C119" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="C121" t="s">
+        <v>108</v>
+      </c>
+      <c r="D121" t="s">
+        <v>656</v>
+      </c>
+      <c r="E121" t="s">
+        <v>698</v>
+      </c>
+      <c r="F121" t="s">
         <v>243</v>
       </c>
-      <c r="B120" t="s">
+    </row>
+    <row r="122" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C120" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="C122" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>245</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B123" t="s">
         <v>246</v>
       </c>
-      <c r="C121" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="C123" t="s">
+        <v>108</v>
+      </c>
+      <c r="D123" t="s">
+        <v>652</v>
+      </c>
+      <c r="E123" t="s">
+        <v>704</v>
+      </c>
+      <c r="F123" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B124" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C122" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="C124" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>249</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B125" t="s">
         <v>250</v>
       </c>
-      <c r="C123" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="C125" t="s">
+        <v>108</v>
+      </c>
+      <c r="D125" t="s">
+        <v>660</v>
+      </c>
+      <c r="E125" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B126" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C124" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="C126" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>253</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B127" t="s">
         <v>254</v>
       </c>
-      <c r="C125" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="C127" t="s">
+        <v>108</v>
+      </c>
+      <c r="D127" t="s">
+        <v>655</v>
+      </c>
+      <c r="F127" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B128" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C126" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="C128" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B129" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C127" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="C129" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>259</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B130" t="s">
         <v>260</v>
       </c>
-      <c r="C128" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="C130" t="s">
+        <v>108</v>
+      </c>
+      <c r="D130" t="s">
+        <v>660</v>
+      </c>
+      <c r="E130" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B131" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C129" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="C131" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>263</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B132" t="s">
         <v>264</v>
       </c>
-      <c r="C130" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="C132" t="s">
+        <v>108</v>
+      </c>
+      <c r="D132" t="s">
+        <v>656</v>
+      </c>
+      <c r="E132" t="s">
+        <v>680</v>
+      </c>
+      <c r="F132" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B133" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C131" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="C133" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>267</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B134" t="s">
         <v>268</v>
       </c>
-      <c r="C132" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="C134" t="s">
+        <v>108</v>
+      </c>
+      <c r="D134" t="s">
+        <v>655</v>
+      </c>
+      <c r="E134" t="s">
+        <v>680</v>
+      </c>
+      <c r="F134" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B135" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C133" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="C135" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>271</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B136" t="s">
         <v>272</v>
       </c>
-      <c r="C134" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="C136" t="s">
+        <v>108</v>
+      </c>
+      <c r="D136" t="s">
+        <v>655</v>
+      </c>
+      <c r="E136" t="s">
+        <v>713</v>
+      </c>
+      <c r="F136" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B137" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C135" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="C137" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>275</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B138" t="s">
         <v>276</v>
       </c>
-      <c r="C136" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="C138" t="s">
+        <v>108</v>
+      </c>
+      <c r="D138" t="s">
+        <v>703</v>
+      </c>
+      <c r="E138" t="s">
+        <v>687</v>
+      </c>
+      <c r="F138" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B139" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C137" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="C139" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>279</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B140" t="s">
         <v>280</v>
       </c>
-      <c r="C138" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="C140" t="s">
+        <v>108</v>
+      </c>
+      <c r="D140" t="s">
+        <v>655</v>
+      </c>
+      <c r="E140" t="s">
+        <v>680</v>
+      </c>
+      <c r="F140" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B141" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C139" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="C141" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>283</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B142" t="s">
         <v>284</v>
       </c>
-      <c r="C140" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="C142" t="s">
+        <v>108</v>
+      </c>
+      <c r="D142" t="s">
+        <v>660</v>
+      </c>
+      <c r="E142" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B143" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C141" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="C143" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>287</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B144" t="s">
         <v>288</v>
       </c>
-      <c r="C142" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="C144" t="s">
+        <v>108</v>
+      </c>
+      <c r="D144" t="s">
+        <v>655</v>
+      </c>
+      <c r="E144" t="s">
+        <v>680</v>
+      </c>
+      <c r="F144" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B145" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C143" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="C145" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>291</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B146" t="s">
         <v>292</v>
       </c>
-      <c r="C144" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="C146" t="s">
+        <v>108</v>
+      </c>
+      <c r="D146" t="s">
+        <v>753</v>
+      </c>
+      <c r="E146" t="s">
+        <v>701</v>
+      </c>
+      <c r="F146" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B147" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C145" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="C147" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>295</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B148" t="s">
         <v>296</v>
       </c>
-      <c r="C146" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="C148" t="s">
+        <v>108</v>
+      </c>
+      <c r="D148" t="s">
+        <v>655</v>
+      </c>
+      <c r="E148" t="s">
+        <v>680</v>
+      </c>
+      <c r="F148" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B149" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C147" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="C149" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>299</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B150" t="s">
         <v>300</v>
       </c>
-      <c r="C148" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="C150" t="s">
+        <v>108</v>
+      </c>
+      <c r="D150" t="s">
+        <v>655</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="F150" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B151" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C149" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="C151" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>303</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B152" t="s">
         <v>304</v>
       </c>
-      <c r="C150" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="C152" t="s">
+        <v>108</v>
+      </c>
+      <c r="D152" t="s">
+        <v>656</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="F152" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B153" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C151" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="C153" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>307</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B154" t="s">
         <v>308</v>
       </c>
-      <c r="C152" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="C154" t="s">
+        <v>108</v>
+      </c>
+      <c r="D154" t="s">
+        <v>656</v>
+      </c>
+      <c r="E154" t="s">
+        <v>716</v>
+      </c>
+      <c r="F154" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B155" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C153" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="C155" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>311</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B156" t="s">
         <v>312</v>
       </c>
-      <c r="C154" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="C156" t="s">
+        <v>108</v>
+      </c>
+      <c r="D156" t="s">
+        <v>655</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="F156" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B158" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C158" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="D158" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B159" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C159" s="4" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="D159" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>318</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B160" t="s">
         <v>319</v>
-      </c>
-      <c r="C157" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>320</v>
-      </c>
-      <c r="B158" t="s">
-        <v>321</v>
-      </c>
-      <c r="C158" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>322</v>
-      </c>
-      <c r="B159" t="s">
-        <v>323</v>
-      </c>
-      <c r="C159" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>324</v>
-      </c>
-      <c r="B160" t="s">
-        <v>325</v>
       </c>
       <c r="C160" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>326</v>
-      </c>
-      <c r="B161" t="s">
-        <v>327</v>
-      </c>
-      <c r="C161" t="s">
+      <c r="D160" t="s">
+        <v>667</v>
+      </c>
+      <c r="F160" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B162" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C162" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>330</v>
-      </c>
-      <c r="B163" t="s">
-        <v>331</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="D162" t="s">
+        <v>656</v>
+      </c>
+      <c r="E162" t="s">
+        <v>719</v>
+      </c>
+      <c r="F162" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B164" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C164" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>334</v>
-      </c>
-      <c r="B165" t="s">
-        <v>335</v>
-      </c>
-      <c r="C165" t="s">
+      <c r="D164" t="s">
+        <v>656</v>
+      </c>
+      <c r="E164" t="s">
+        <v>717</v>
+      </c>
+      <c r="F164" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E165" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B166" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C166" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>338</v>
-      </c>
-      <c r="B167" t="s">
-        <v>339</v>
-      </c>
-      <c r="C167" t="s">
+      <c r="D166" t="s">
+        <v>667</v>
+      </c>
+      <c r="F166" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B168" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C168" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="D168" t="s">
+        <v>706</v>
+      </c>
+      <c r="E168" t="s">
+        <v>722</v>
+      </c>
+      <c r="F168" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>338</v>
+      </c>
+      <c r="B170" t="s">
+        <v>339</v>
+      </c>
+      <c r="C170" t="s">
+        <v>315</v>
+      </c>
+      <c r="D170" t="s">
+        <v>723</v>
+      </c>
+      <c r="E170" t="s">
+        <v>716</v>
+      </c>
+      <c r="F170" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>342</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B172" t="s">
         <v>343</v>
-      </c>
-      <c r="C169" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>345</v>
-      </c>
-      <c r="B170" t="s">
-        <v>346</v>
-      </c>
-      <c r="C170" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>347</v>
-      </c>
-      <c r="B171" t="s">
-        <v>348</v>
-      </c>
-      <c r="C171" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>349</v>
-      </c>
-      <c r="B172" t="s">
-        <v>350</v>
       </c>
       <c r="C172" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>351</v>
-      </c>
-      <c r="B173" t="s">
-        <v>352</v>
-      </c>
-      <c r="C173" t="s">
+      <c r="D172" t="s">
+        <v>656</v>
+      </c>
+      <c r="E172" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B174" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C174" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>355</v>
-      </c>
-      <c r="B175" t="s">
-        <v>356</v>
-      </c>
-      <c r="C175" t="s">
+      <c r="D174" t="s">
+        <v>656</v>
+      </c>
+      <c r="E174" t="s">
+        <v>725</v>
+      </c>
+      <c r="F174" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B176" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C176" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="D176" t="s">
+        <v>727</v>
+      </c>
+      <c r="E176" t="s">
+        <v>724</v>
+      </c>
+      <c r="F176" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>355</v>
+      </c>
+      <c r="B178" t="s">
+        <v>356</v>
+      </c>
+      <c r="C178" t="s">
+        <v>344</v>
+      </c>
+      <c r="D178" t="s">
+        <v>656</v>
+      </c>
+      <c r="E178" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>359</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B180" t="s">
         <v>360</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C180" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="D180" t="s">
+        <v>656</v>
+      </c>
+      <c r="E180" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>361</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B182" t="s">
         <v>362</v>
-      </c>
-      <c r="C178" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>364</v>
-      </c>
-      <c r="B179" t="s">
-        <v>365</v>
-      </c>
-      <c r="C179" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>366</v>
-      </c>
-      <c r="B180" t="s">
-        <v>367</v>
-      </c>
-      <c r="C180" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>368</v>
-      </c>
-      <c r="B181" t="s">
-        <v>369</v>
-      </c>
-      <c r="C181" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>370</v>
-      </c>
-      <c r="B182" t="s">
-        <v>371</v>
       </c>
       <c r="C182" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>372</v>
-      </c>
-      <c r="B183" t="s">
-        <v>373</v>
-      </c>
-      <c r="C183" t="s">
+      <c r="D182" t="s">
+        <v>656</v>
+      </c>
+      <c r="E182" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C183" s="3" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B184" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C184" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>376</v>
-      </c>
-      <c r="B185" t="s">
-        <v>377</v>
-      </c>
-      <c r="C185" t="s">
+      <c r="D184" t="s">
+        <v>656</v>
+      </c>
+      <c r="E184" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B186" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C186" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>380</v>
-      </c>
-      <c r="B187" t="s">
-        <v>381</v>
-      </c>
-      <c r="C187" t="s">
+      <c r="D186" t="s">
+        <v>656</v>
+      </c>
+      <c r="E186" t="s">
+        <v>659</v>
+      </c>
+      <c r="F186" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B188" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C188" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>384</v>
-      </c>
-      <c r="B189" t="s">
-        <v>385</v>
-      </c>
-      <c r="C189" t="s">
+      <c r="D188" t="s">
+        <v>656</v>
+      </c>
+      <c r="E188" t="s">
+        <v>659</v>
+      </c>
+      <c r="F188" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B190" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C190" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>388</v>
-      </c>
-      <c r="B191" t="s">
-        <v>389</v>
-      </c>
-      <c r="C191" t="s">
+      <c r="D190" t="s">
+        <v>656</v>
+      </c>
+      <c r="E190" t="s">
+        <v>731</v>
+      </c>
+      <c r="F190" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B192" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C192" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>392</v>
-      </c>
-      <c r="B193" t="s">
-        <v>393</v>
-      </c>
-      <c r="C193" t="s">
+      <c r="D192" t="s">
+        <v>656</v>
+      </c>
+      <c r="E192" t="s">
+        <v>659</v>
+      </c>
+      <c r="F192" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C193" s="3" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B194" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C194" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>396</v>
-      </c>
-      <c r="B195" t="s">
-        <v>397</v>
-      </c>
-      <c r="C195" t="s">
+      <c r="D194" t="s">
+        <v>656</v>
+      </c>
+      <c r="E194" t="s">
+        <v>659</v>
+      </c>
+      <c r="F194" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C195" s="3" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B196" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C196" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>400</v>
-      </c>
-      <c r="B197" t="s">
-        <v>401</v>
-      </c>
-      <c r="C197" t="s">
+      <c r="D196" t="s">
+        <v>656</v>
+      </c>
+      <c r="E196" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B198" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C198" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>404</v>
-      </c>
-      <c r="B199" t="s">
-        <v>405</v>
-      </c>
-      <c r="C199" t="s">
+      <c r="D198" t="s">
+        <v>656</v>
+      </c>
+      <c r="E198" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>406</v>
-      </c>
-      <c r="B200" t="s">
-        <v>407</v>
-      </c>
-      <c r="C200" t="s">
+      <c r="D199" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>408</v>
-      </c>
-      <c r="B201" t="s">
-        <v>409</v>
-      </c>
-      <c r="C201" t="s">
+      <c r="D200" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C201" s="3" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B202" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C202" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="D202" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E202" t="s">
+        <v>659</v>
+      </c>
+      <c r="F202" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B207" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C207" s="3" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="D207" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B208" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C208" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="D208" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B209" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C209" s="3" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="D209" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B211" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C211" s="3" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="D211" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B212" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C212" s="2" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="D212" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B213" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C213" s="3" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="D213" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B215" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C215" s="3" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="D215" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>428</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B216" t="s">
         <v>429</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C216" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="D216" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B217" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C217" s="3" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="D217" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>432</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B218" t="s">
         <v>433</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C218" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="D218" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E218" t="s">
+        <v>665</v>
+      </c>
+      <c r="F218" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B219" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C219" s="3" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="D219" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>437</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B220" t="s">
         <v>438</v>
-      </c>
-      <c r="C214" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>439</v>
-      </c>
-      <c r="B215" t="s">
-        <v>440</v>
-      </c>
-      <c r="C215" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>441</v>
-      </c>
-      <c r="B216" t="s">
-        <v>442</v>
-      </c>
-      <c r="C216" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>443</v>
-      </c>
-      <c r="B217" t="s">
-        <v>444</v>
-      </c>
-      <c r="C217" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>445</v>
-      </c>
-      <c r="B218" t="s">
-        <v>446</v>
-      </c>
-      <c r="C218" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>447</v>
-      </c>
-      <c r="B219" t="s">
-        <v>448</v>
-      </c>
-      <c r="C219" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>449</v>
-      </c>
-      <c r="B220" t="s">
-        <v>450</v>
       </c>
       <c r="C220" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>451</v>
-      </c>
-      <c r="B221" t="s">
-        <v>452</v>
-      </c>
-      <c r="C221" t="s">
+      <c r="D220" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="E220" t="s">
+        <v>662</v>
+      </c>
+      <c r="F220" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C221" s="3" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B222" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C222" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="D222" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="E222" t="s">
+        <v>662</v>
+      </c>
+      <c r="F222" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>445</v>
+      </c>
+      <c r="B224" t="s">
+        <v>446</v>
+      </c>
+      <c r="C224" t="s">
+        <v>436</v>
+      </c>
+      <c r="E224" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>449</v>
+      </c>
+      <c r="B226" t="s">
+        <v>450</v>
+      </c>
+      <c r="C226" t="s">
+        <v>436</v>
+      </c>
+      <c r="E226" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>453</v>
+      </c>
+      <c r="B228" t="s">
+        <v>454</v>
+      </c>
+      <c r="C228" t="s">
+        <v>436</v>
+      </c>
+      <c r="D228" t="s">
+        <v>741</v>
+      </c>
+      <c r="E228" t="s">
+        <v>662</v>
+      </c>
+      <c r="F228" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B230" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C230" s="2" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="D230" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B231" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C231" s="3" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="D231" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>460</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B232" t="s">
         <v>461</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C232" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="D232" t="s">
+        <v>656</v>
+      </c>
+      <c r="E232" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B233" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C233" s="3" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="D233" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>464</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B234" t="s">
         <v>465</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C234" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="D234" t="s">
+        <v>706</v>
+      </c>
+      <c r="E234" t="s">
+        <v>744</v>
+      </c>
+      <c r="F234" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B235" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C235" s="3" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="D235" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B237" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C237" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="D237" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B238" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C238" s="2" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="D238" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B239" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C239" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="D239" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>475</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B240" t="s">
         <v>476</v>
-      </c>
-      <c r="C232" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>477</v>
-      </c>
-      <c r="B233" t="s">
-        <v>478</v>
-      </c>
-      <c r="C233" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>479</v>
-      </c>
-      <c r="B234" t="s">
-        <v>480</v>
-      </c>
-      <c r="C234" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>481</v>
-      </c>
-      <c r="B235" t="s">
-        <v>482</v>
-      </c>
-      <c r="C235" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>483</v>
-      </c>
-      <c r="B236" t="s">
-        <v>484</v>
-      </c>
-      <c r="C236" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>485</v>
-      </c>
-      <c r="B237" t="s">
-        <v>486</v>
-      </c>
-      <c r="C237" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>487</v>
-      </c>
-      <c r="B238" t="s">
-        <v>488</v>
-      </c>
-      <c r="C238" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>489</v>
-      </c>
-      <c r="B239" t="s">
-        <v>490</v>
-      </c>
-      <c r="C239" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>491</v>
-      </c>
-      <c r="B240" t="s">
-        <v>492</v>
       </c>
       <c r="C240" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>493</v>
-      </c>
-      <c r="B241" t="s">
-        <v>494</v>
-      </c>
-      <c r="C241" t="s">
+      <c r="D240" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="E240" t="s">
+        <v>713</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C241" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="B242" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="C242" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>497</v>
-      </c>
-      <c r="B243" t="s">
-        <v>498</v>
-      </c>
-      <c r="C243" t="s">
+      <c r="E242" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C243" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>499</v>
-      </c>
-      <c r="B244" t="s">
-        <v>500</v>
-      </c>
-      <c r="C244" t="s">
+      <c r="D243" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>501</v>
-      </c>
-      <c r="B245" t="s">
-        <v>502</v>
-      </c>
-      <c r="C245" t="s">
+      <c r="D244" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C245" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E245" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="B246" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="C246" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>505</v>
-      </c>
-      <c r="B247" t="s">
-        <v>506</v>
-      </c>
-      <c r="C247" t="s">
+      <c r="E246" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C247" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>507</v>
-      </c>
-      <c r="B248" t="s">
-        <v>508</v>
-      </c>
-      <c r="C248" t="s">
+      <c r="D247" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C248" s="2" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>509</v>
-      </c>
-      <c r="B249" t="s">
-        <v>510</v>
-      </c>
-      <c r="C249" t="s">
+      <c r="D248" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C249" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="B250" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="C250" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>513</v>
-      </c>
-      <c r="B251" t="s">
-        <v>514</v>
-      </c>
-      <c r="C251" t="s">
+      <c r="E250" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C251" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>515</v>
-      </c>
-      <c r="B252" t="s">
-        <v>516</v>
-      </c>
-      <c r="C252" t="s">
+      <c r="D251" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C252" s="2" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>517</v>
-      </c>
-      <c r="B253" t="s">
-        <v>518</v>
-      </c>
-      <c r="C253" t="s">
+      <c r="D252" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C253" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>519</v>
-      </c>
-      <c r="B254" t="s">
-        <v>520</v>
-      </c>
-      <c r="C254" t="s">
+      <c r="D253" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>521</v>
-      </c>
-      <c r="B255" t="s">
-        <v>522</v>
-      </c>
-      <c r="C255" t="s">
+      <c r="D254" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C255" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E255" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="B256" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="C256" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>525</v>
-      </c>
-      <c r="B257" t="s">
-        <v>526</v>
-      </c>
-      <c r="C257" t="s">
+      <c r="E256" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C257" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E257" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B258" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="C258" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>529</v>
-      </c>
-      <c r="B259" t="s">
-        <v>530</v>
-      </c>
-      <c r="C259" t="s">
+      <c r="D258" t="s">
+        <v>656</v>
+      </c>
+      <c r="E258" t="s">
+        <v>704</v>
+      </c>
+      <c r="F258" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C259" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E259" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="B260" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="C260" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>533</v>
-      </c>
-      <c r="B261" t="s">
-        <v>534</v>
-      </c>
-      <c r="C261" t="s">
+      <c r="D260" t="s">
+        <v>757</v>
+      </c>
+      <c r="E260" t="s">
+        <v>705</v>
+      </c>
+      <c r="F260" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C261" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D261" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="B262" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="C262" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>537</v>
-      </c>
-      <c r="B263" t="s">
-        <v>538</v>
-      </c>
-      <c r="C263" t="s">
+      <c r="D262" t="s">
+        <v>757</v>
+      </c>
+      <c r="E262" t="s">
+        <v>713</v>
+      </c>
+      <c r="F262" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C263" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D263" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="B264" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="C264" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>541</v>
-      </c>
-      <c r="B265" t="s">
-        <v>542</v>
-      </c>
-      <c r="C265" t="s">
+      <c r="E264" t="s">
+        <v>713</v>
+      </c>
+      <c r="F264" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C265" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D265" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="B266" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="C266" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>545</v>
-      </c>
-      <c r="B267" t="s">
-        <v>546</v>
-      </c>
-      <c r="C267" t="s">
+      <c r="D266" t="s">
+        <v>660</v>
+      </c>
+      <c r="E266" t="s">
+        <v>705</v>
+      </c>
+      <c r="F266" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C267" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D267" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="B268" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="C268" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>549</v>
-      </c>
-      <c r="B269" t="s">
-        <v>550</v>
-      </c>
-      <c r="C269" t="s">
+      <c r="D268" t="s">
+        <v>745</v>
+      </c>
+      <c r="E268" t="s">
+        <v>760</v>
+      </c>
+      <c r="F268" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C269" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D269" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="B270" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="C270" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>553</v>
-      </c>
-      <c r="B271" t="s">
-        <v>554</v>
-      </c>
-      <c r="C271" t="s">
+      <c r="D270" t="s">
+        <v>751</v>
+      </c>
+      <c r="E270" t="s">
+        <v>658</v>
+      </c>
+      <c r="F270" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D271" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="B272" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="C272" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>557</v>
-      </c>
-      <c r="B273" t="s">
-        <v>558</v>
-      </c>
-      <c r="C273" t="s">
+      <c r="D272" t="s">
+        <v>660</v>
+      </c>
+      <c r="E272" t="s">
+        <v>761</v>
+      </c>
+      <c r="F272" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C273" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D273" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="B274" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="C274" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>561</v>
-      </c>
-      <c r="B275" t="s">
-        <v>562</v>
-      </c>
-      <c r="C275" t="s">
+      <c r="D274" t="s">
+        <v>745</v>
+      </c>
+      <c r="E274" t="s">
+        <v>716</v>
+      </c>
+      <c r="F274" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C275" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D275" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="B276" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="C276" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>565</v>
-      </c>
-      <c r="B277" t="s">
-        <v>566</v>
-      </c>
-      <c r="C277" t="s">
+      <c r="D276" t="s">
+        <v>678</v>
+      </c>
+      <c r="E276" t="s">
+        <v>716</v>
+      </c>
+      <c r="F276" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C277" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D277" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="B278" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C278" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>569</v>
-      </c>
-      <c r="B279" t="s">
-        <v>570</v>
-      </c>
-      <c r="C279" t="s">
+      <c r="E278" t="s">
+        <v>760</v>
+      </c>
+      <c r="F278" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D279" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="B280" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="C280" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>573</v>
-      </c>
-      <c r="B281" t="s">
-        <v>574</v>
-      </c>
-      <c r="C281" t="s">
+      <c r="D280" t="s">
+        <v>723</v>
+      </c>
+      <c r="E280" t="s">
+        <v>705</v>
+      </c>
+      <c r="F280" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C281" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D281" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="B282" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="C282" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>577</v>
-      </c>
-      <c r="B283" t="s">
-        <v>578</v>
-      </c>
-      <c r="C283" t="s">
+      <c r="D282" t="s">
+        <v>745</v>
+      </c>
+      <c r="E282" t="s">
+        <v>716</v>
+      </c>
+      <c r="F282" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D283" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="B284" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="C284" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>581</v>
-      </c>
-      <c r="B285" t="s">
-        <v>582</v>
-      </c>
-      <c r="C285" t="s">
+      <c r="D284" t="s">
+        <v>656</v>
+      </c>
+      <c r="E284" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C285" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D285" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="B286" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="C286" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+      <c r="D286" t="s">
+        <v>656</v>
+      </c>
+      <c r="E286" t="s">
+        <v>713</v>
+      </c>
+      <c r="F286" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>571</v>
+      </c>
+      <c r="B288" t="s">
+        <v>572</v>
+      </c>
+      <c r="C288" t="s">
+        <v>470</v>
+      </c>
+      <c r="E288" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>575</v>
+      </c>
+      <c r="B290" t="s">
+        <v>576</v>
+      </c>
+      <c r="C290" t="s">
+        <v>470</v>
+      </c>
+      <c r="E290" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>579</v>
+      </c>
+      <c r="B292" t="s">
+        <v>580</v>
+      </c>
+      <c r="C292" t="s">
+        <v>470</v>
+      </c>
+      <c r="D292" t="s">
+        <v>745</v>
+      </c>
+      <c r="E292" t="s">
+        <v>694</v>
+      </c>
+      <c r="F292" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>583</v>
+      </c>
+      <c r="B294" t="s">
+        <v>584</v>
+      </c>
+      <c r="C294" t="s">
+        <v>470</v>
+      </c>
+      <c r="E294" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B296" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C296" s="2" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+      <c r="D296" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B297" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C297" s="3" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+      <c r="D297" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B298" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C298" s="5" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="D298" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F298" s="5" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B299" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C299" s="3" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+      <c r="D299" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
         <v>594</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B300" t="s">
         <v>595</v>
-      </c>
-      <c r="C291" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>596</v>
-      </c>
-      <c r="B292" t="s">
-        <v>597</v>
-      </c>
-      <c r="C292" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>598</v>
-      </c>
-      <c r="B293" t="s">
-        <v>599</v>
-      </c>
-      <c r="C293" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>600</v>
-      </c>
-      <c r="B294" t="s">
-        <v>601</v>
-      </c>
-      <c r="C294" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>602</v>
-      </c>
-      <c r="B295" t="s">
-        <v>603</v>
-      </c>
-      <c r="C295" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>604</v>
-      </c>
-      <c r="B296" t="s">
-        <v>605</v>
-      </c>
-      <c r="C296" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>606</v>
-      </c>
-      <c r="B297" t="s">
-        <v>607</v>
-      </c>
-      <c r="C297" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>608</v>
-      </c>
-      <c r="B298" t="s">
-        <v>609</v>
-      </c>
-      <c r="C298" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>610</v>
-      </c>
-      <c r="B299" t="s">
-        <v>611</v>
-      </c>
-      <c r="C299" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>612</v>
-      </c>
-      <c r="B300" t="s">
-        <v>613</v>
       </c>
       <c r="C300" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>614</v>
-      </c>
-      <c r="B301" t="s">
-        <v>615</v>
-      </c>
-      <c r="C301" t="s">
+      <c r="D300" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E300" t="s">
+        <v>659</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C301" s="3" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D301" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="B302" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="C302" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+      <c r="D302" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>602</v>
+      </c>
+      <c r="B304" t="s">
+        <v>603</v>
+      </c>
+      <c r="C304" t="s">
+        <v>587</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E304" t="s">
+        <v>662</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>606</v>
+      </c>
+      <c r="B306" t="s">
+        <v>607</v>
+      </c>
+      <c r="C306" t="s">
+        <v>587</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="E306" t="s">
+        <v>767</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>610</v>
+      </c>
+      <c r="B308" t="s">
+        <v>611</v>
+      </c>
+      <c r="C308" t="s">
+        <v>587</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E308" t="s">
+        <v>662</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>614</v>
+      </c>
+      <c r="B310" t="s">
+        <v>615</v>
+      </c>
+      <c r="C310" t="s">
+        <v>587</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="E310" t="s">
+        <v>662</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B313" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C313" s="3" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+      <c r="D313" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="F313" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="B304" t="s">
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>621</v>
+      </c>
+      <c r="B314" t="s">
         <v>622</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C314" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+      <c r="D314" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B315" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C315" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+      <c r="D315" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="E315" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="F315" s="4" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
         <v>625</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B316" t="s">
         <v>626</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C316" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+      <c r="D316" t="s">
+        <v>656</v>
+      </c>
+      <c r="E316" t="s">
+        <v>769</v>
+      </c>
+      <c r="F316" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B317" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C317" s="3" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+      <c r="D317" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
         <v>629</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B318" t="s">
         <v>630</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C318" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+      <c r="E318" t="s">
+        <v>769</v>
+      </c>
+      <c r="F318" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B319" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="C309" t="s">
+      <c r="C319" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="D319" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="E319" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="F319" s="4" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
         <v>633</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B320" t="s">
         <v>634</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C320" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
         <v>635</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B321" t="s">
         <v>636</v>
       </c>
-      <c r="C311" t="s">
+      <c r="C321" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
         <v>637</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B322" t="s">
         <v>638</v>
       </c>
-      <c r="C312" t="s">
+      <c r="C322" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
         <v>639</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B323" t="s">
         <v>640</v>
       </c>
-      <c r="C313" t="s">
+      <c r="C323" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
         <v>642</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B324" t="s">
         <v>643</v>
       </c>
-      <c r="C314" t="s">
+      <c r="C324" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
         <v>644</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B325" t="s">
         <v>645</v>
       </c>
-      <c r="C315" t="s">
+      <c r="C325" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
         <v>646</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B326" t="s">
         <v>647</v>
       </c>
-      <c r="C316" t="s">
+      <c r="C326" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="D326" t="s">
+        <v>773</v>
+      </c>
+      <c r="E326" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
         <v>648</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B327" t="s">
         <v>649</v>
       </c>
-      <c r="C317" t="s">
+      <c r="C327" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
         <v>650</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B328" t="s">
         <v>651</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C328" t="s">
         <v>641</v>
+      </c>
+      <c r="D328" t="s">
+        <v>772</v>
+      </c>
+      <c r="E328" t="s">
+        <v>774</v>
+      </c>
+      <c r="F328" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
